--- a/data/trans_dic/P36$otros-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36$otros-Clase-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00406051297934387</v>
+        <v>0.003723730571693461</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002002379098921296</v>
+        <v>0.002012057624024674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02895997709323939</v>
+        <v>0.02668521813510278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.002909834299908339</v>
+        <v>0.002957380450079536</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01262307235966738</v>
+        <v>0.01078488033309225</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03157686881118819</v>
+        <v>0.03633314801015144</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004845574206188775</v>
+        <v>0.004995757066496694</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.007386402009521748</v>
+        <v>0.007812240874020969</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03448014173731247</v>
+        <v>0.03641592552547274</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02754018490208636</v>
+        <v>0.02309398696606062</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01770849223056194</v>
+        <v>0.01719884450731462</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06916901127521859</v>
+        <v>0.07006060661704187</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02610103949272816</v>
+        <v>0.02831115298129979</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05365369246090939</v>
+        <v>0.05389603768076742</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08636225665841889</v>
+        <v>0.09199316727240477</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02073168881998471</v>
+        <v>0.02298969007709784</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02667596161617539</v>
+        <v>0.02787204631190811</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06824670575031129</v>
+        <v>0.06782970887421626</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01221995705786897</v>
+        <v>0.01193947897407151</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002412251568168877</v>
+        <v>0.002356838393964818</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02310346136436205</v>
+        <v>0.02321996071794351</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005684694489757259</v>
+        <v>0.006138364778286564</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01681316661480214</v>
+        <v>0.01637688673144</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01203299297765776</v>
+        <v>0.01243543498905609</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003680594948012976</v>
+        <v>0.003701100062047479</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02278912650721823</v>
+        <v>0.02458929466588998</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04723374510492745</v>
+        <v>0.04871881162019604</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02447629428284544</v>
+        <v>0.02187564818621391</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06994300856606414</v>
+        <v>0.06544222764078833</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03215877426479639</v>
+        <v>0.03124060356685806</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03002623622168388</v>
+        <v>0.02855720583820627</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05971659117611632</v>
+        <v>0.05873744758020061</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03450361539799178</v>
+        <v>0.03437050237383634</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01921006895194296</v>
+        <v>0.01904593628095273</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05358181690594139</v>
+        <v>0.05336072714777655</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009202915047196648</v>
+        <v>0.008637364865876129</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005286445038971301</v>
+        <v>0.005703678362480384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0276632343850046</v>
+        <v>0.02693665828116631</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.003771373403835567</v>
+        <v>0.003739364929592497</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0061646558523053</v>
+        <v>0.006124637386269689</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.008047519998867395</v>
+        <v>0.009047483285226495</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007104268268544368</v>
+        <v>0.007174355073336942</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0240058570549267</v>
+        <v>0.02540835680062205</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03309029714893762</v>
+        <v>0.03156465313058707</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02351087629583446</v>
+        <v>0.02349646216434451</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06334465419615339</v>
+        <v>0.0640053853061289</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03951344409650089</v>
+        <v>0.03458287050441972</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03884917874674908</v>
+        <v>0.03694210550443383</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06742510715328133</v>
+        <v>0.06836966791901201</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02757168636530323</v>
+        <v>0.02831032889886978</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02317731537283539</v>
+        <v>0.02134459482693291</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05414513180779255</v>
+        <v>0.05362552580233601</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01314284135771326</v>
+        <v>0.0137770157408876</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006840189937153781</v>
+        <v>0.007175267848056626</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03530563761848392</v>
+        <v>0.03570979240018698</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01140406522503023</v>
+        <v>0.01131652513124931</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005628352405024632</v>
+        <v>0.00622122681409637</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02095867314163405</v>
+        <v>0.02064070221217258</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01452746492927851</v>
+        <v>0.01460627429379811</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.008243109844805772</v>
+        <v>0.008268906475750733</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03187945439541</v>
+        <v>0.03258121294192501</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02938937399676386</v>
+        <v>0.03047736049399675</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0231067478930747</v>
+        <v>0.02368384311915743</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06096354142355571</v>
+        <v>0.06195641725490792</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03179866553611962</v>
+        <v>0.03434758697079211</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02405911568617215</v>
+        <v>0.02252391678622421</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04566746978025841</v>
+        <v>0.04844327717344746</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02807382263121148</v>
+        <v>0.02750536834465368</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02020422673480334</v>
+        <v>0.0208737737143741</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05086331723525096</v>
+        <v>0.0509765150025103</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007800327826649463</v>
+        <v>0.008001778346487949</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.001893396499094814</v>
+        <v>0.00190211676407216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01708304848158926</v>
+        <v>0.01511444339439539</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.003448987068631708</v>
+        <v>0.004047069164509876</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.002926507617879512</v>
+        <v>0.002963822328293556</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04216803603964088</v>
+        <v>0.04219656245869375</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.007042891049225256</v>
+        <v>0.007262582705532257</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004058249341541527</v>
+        <v>0.004121001039436271</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0336952954546431</v>
+        <v>0.0342135389432707</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04239265250209896</v>
+        <v>0.0415731824937787</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01723694398415912</v>
+        <v>0.01905321205227862</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04387291706343145</v>
+        <v>0.04306766841988678</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02331076915221951</v>
+        <v>0.02011541828058885</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01739304424861077</v>
+        <v>0.01829222696326893</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07841837201376126</v>
+        <v>0.07627241944955684</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0224438028146223</v>
+        <v>0.02254168155413503</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01465421641083509</v>
+        <v>0.01455286344385795</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05665648527971163</v>
+        <v>0.05671795788139884</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003281853376802331</v>
+        <v>0.00330319871405415</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01102671101981356</v>
+        <v>0.01177758768305654</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01400525904748834</v>
+        <v>0.01304846822141077</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.003766295864175207</v>
+        <v>0.004532565614301208</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02770117550216288</v>
+        <v>0.02745013855882247</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0128593962177977</v>
+        <v>0.01246273614257614</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.004447487777607462</v>
+        <v>0.004084898383799699</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02763157072027829</v>
+        <v>0.02718220958038467</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02920079344603573</v>
+        <v>0.02642406629679483</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.02534923149566102</v>
+        <v>0.02200840000706034</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05168757094974996</v>
+        <v>0.05434761307224917</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02980071505615308</v>
+        <v>0.02856567434589808</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.01501766669215076</v>
+        <v>0.01566849255895965</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05056545108098778</v>
+        <v>0.05099520227182934</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02566070606120089</v>
+        <v>0.02547405489469681</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01407295482893613</v>
+        <v>0.01468991125603752</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04736432346521764</v>
+        <v>0.04782951022934014</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01377715048359457</v>
+        <v>0.01405526928659913</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007412917668240072</v>
+        <v>0.007266575254960521</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03304794347771214</v>
+        <v>0.03360758149302311</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01255740535018088</v>
+        <v>0.01258340662527418</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.008102518103374284</v>
+        <v>0.008005836871230286</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03527874928732468</v>
+        <v>0.03476579595340449</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0145036947594352</v>
+        <v>0.01438830187412453</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.008646691222735642</v>
+        <v>0.008706285987029824</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03617563461293435</v>
+        <v>0.03647589536902058</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02364011828574411</v>
+        <v>0.02373608815299167</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01485305154434559</v>
+        <v>0.01456355843294064</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04684101579844614</v>
+        <v>0.04776806872459396</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02159334759236844</v>
+        <v>0.02079062974025117</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01585501978652397</v>
+        <v>0.01537986057375652</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04858402403988892</v>
+        <v>0.04888300464567494</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02088265931005437</v>
+        <v>0.02041069683530591</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01405852951385709</v>
+        <v>0.01399008168907511</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04623623780693698</v>
+        <v>0.04647178637776175</v>
       </c>
     </row>
     <row r="25">
@@ -1619,31 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1920</v>
+        <v>1761</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12426</v>
+        <v>11450</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3955</v>
+        <v>3379</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10959</v>
+        <v>12610</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3777</v>
+        <v>3894</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5544</v>
+        <v>5863</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>26762</v>
+        <v>28264</v>
       </c>
     </row>
     <row r="7">
@@ -1654,31 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13023</v>
+        <v>10921</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7742</v>
+        <v>7520</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>29680</v>
+        <v>30062</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8005</v>
+        <v>8682</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16809</v>
+        <v>16885</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29972</v>
+        <v>31927</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16162</v>
+        <v>17922</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20020</v>
+        <v>20918</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>52969</v>
+        <v>52646</v>
       </c>
     </row>
     <row r="8">
@@ -1763,31 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4462</v>
+        <v>4360</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1005</v>
+        <v>982</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8715</v>
+        <v>8759</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2108</v>
+        <v>2276</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6240</v>
+        <v>6078</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8856</v>
+        <v>9152</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2778</v>
+        <v>2794</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>17055</v>
+        <v>18402</v>
       </c>
     </row>
     <row r="11">
@@ -1798,31 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17248</v>
+        <v>17790</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10201</v>
+        <v>9117</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>26384</v>
+        <v>24687</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11924</v>
+        <v>11584</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>10149</v>
+        <v>9653</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22164</v>
+        <v>21801</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>25393</v>
+        <v>25295</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14499</v>
+        <v>14375</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>40100</v>
+        <v>39935</v>
       </c>
     </row>
     <row r="12">
@@ -1907,31 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4973</v>
+        <v>4667</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3317</v>
+        <v>3579</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14407</v>
+        <v>14029</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5699</v>
+        <v>6407</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6306</v>
+        <v>6368</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>16490</v>
+        <v>17454</v>
       </c>
     </row>
     <row r="15">
@@ -1942,31 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17881</v>
+        <v>17057</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14754</v>
+        <v>14745</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32991</v>
+        <v>33335</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6630</v>
+        <v>5802</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10106</v>
+        <v>9610</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11201</v>
+        <v>11358</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19525</v>
+        <v>20048</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>20574</v>
+        <v>18947</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>37194</v>
+        <v>36837</v>
       </c>
     </row>
     <row r="16">
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16248</v>
+        <v>17032</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7920</v>
+        <v>8308</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40550</v>
+        <v>41015</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>8135</v>
+        <v>8072</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4304</v>
+        <v>4757</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17309</v>
+        <v>17047</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>28323</v>
+        <v>28476</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15848</v>
+        <v>15898</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>62944</v>
+        <v>64329</v>
       </c>
     </row>
     <row r="19">
@@ -2086,31 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>36334</v>
+        <v>37679</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26756</v>
+        <v>27424</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>70020</v>
+        <v>71160</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22682</v>
+        <v>24500</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18397</v>
+        <v>17223</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>37716</v>
+        <v>40008</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>54733</v>
+        <v>53624</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>38844</v>
+        <v>40132</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>100426</v>
+        <v>100650</v>
       </c>
     </row>
     <row r="20">
@@ -2195,31 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2734</v>
+        <v>2805</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10573</v>
+        <v>9355</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1955</v>
+        <v>2294</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2220</v>
+        <v>2248</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>31130</v>
+        <v>31151</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6461</v>
+        <v>6662</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5147</v>
+        <v>5226</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>45730</v>
+        <v>46433</v>
       </c>
     </row>
     <row r="23">
@@ -2230,31 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14861</v>
+        <v>14574</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8785</v>
+        <v>9711</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27154</v>
+        <v>26655</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>13212</v>
+        <v>11401</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>13194</v>
+        <v>13876</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>57892</v>
+        <v>56308</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>20588</v>
+        <v>20678</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>18585</v>
+        <v>18456</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>76892</v>
+        <v>76976</v>
       </c>
     </row>
     <row r="24">
@@ -2339,31 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3166</v>
+        <v>3382</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>17489</v>
+        <v>16294</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4178</v>
+        <v>5028</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>29914</v>
+        <v>29643</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>19893</v>
+        <v>19279</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6121</v>
+        <v>5622</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>37773</v>
+        <v>37159</v>
       </c>
     </row>
     <row r="27">
@@ -2374,31 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8708</v>
+        <v>7880</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6765</v>
+        <v>5874</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14842</v>
+        <v>15606</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>37214</v>
+        <v>35672</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>16660</v>
+        <v>17382</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>54605</v>
+        <v>55069</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>39696</v>
+        <v>39407</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>19368</v>
+        <v>20217</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>64748</v>
+        <v>65384</v>
       </c>
     </row>
     <row r="28">
@@ -2483,31 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>44961</v>
+        <v>45869</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>25323</v>
+        <v>24823</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>111760</v>
+        <v>113652</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>42370</v>
+        <v>42458</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>28715</v>
+        <v>28373</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>124476</v>
+        <v>122666</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>96269</v>
+        <v>95503</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>60181</v>
+        <v>60596</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>249977</v>
+        <v>252052</v>
       </c>
     </row>
     <row r="31">
@@ -2518,31 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>77149</v>
+        <v>77462</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>50738</v>
+        <v>49749</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>158405</v>
+        <v>161540</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>72858</v>
+        <v>70150</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>56190</v>
+        <v>54506</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>171421</v>
+        <v>172476</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>138610</v>
+        <v>135477</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>97848</v>
+        <v>97371</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>319497</v>
+        <v>321124</v>
       </c>
     </row>
     <row r="32">
